--- a/취업정보뽀개기RPA/DWAVJobKorea/Result/rpa채용정보20220228.xlsx
+++ b/취업정보뽀개기RPA/DWAVJobKorea/Result/rpa채용정보20220228.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd4dfd64622e41b/바탕 화면/새 폴더/취업정보뽀개기RPA/DWAVJobKorea/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\취업정보뽀개기RPA\DWAVJobKorea\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{A071CE51-9205-43D6-B58A-2B68770B47CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A588AC4A-2E2F-4117-9C30-48FDB875E032}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{54875F35-53DA-4159-B1A8-3D1CBBABE753}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="사람인" sheetId="3" r:id="rId1"/>
     <sheet name="잡코리아" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,20 +34,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>학력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고용형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집마감일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사내문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라 창원사무소(경남 창원 근무) RPA 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>모집공고명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>근무지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복지 및 급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무와 삶의 균형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, 소프트웨어개발, SM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 창원시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라 RPA PM 및 개발자(신입/경력) 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국시스템즈㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>신입/경력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>승진 기회 및 가능성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상정보기술(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, Java, C#, 백엔드/서버개발, 웹개발 외 등록일 22/02/07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜비즈테크파트너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이븐클라우드서비스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집공고명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입/경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>학력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,15 +216,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[LG그룹] RPA, 은행 및 금융IT FrontEnd, 모바일, 챗봇, MSA 개발자 인재채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~02/28(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, 안드로이드, 프론트엔드, CAN, front end, IOS, MSA, 소프트웨어개발, 솔루션, ERP, 웹프로그래머, Java, 아이폰, 안드로이드, 응용프로그래머, 전산전공, Python, 인공지능(AI), 빅데이터, R, 챗봇(Chatbot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대오토에버㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA 부문 경력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력3년↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/22(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~05/16(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET, C#, Delphi, VisualC, VisualC++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라 RPA PM 및 개발자(신입/경력) 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~05/16(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔루션, .NET, Java, Python, VB.NET, 시스템분석, 시스템설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한국인프라 창원사무소(경남 창원 근무) RPA 개발자 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 창원시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~05/16(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET, C#, Delphi, VisualC, VisualC++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[동국시스템즈] RPA솔루션 개발자 모집(신입, 경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~03/12(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI, SM, C#, Java, VisualBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 성공 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[신입/경력] RPA 개발 및 유지보수 인력 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 광진구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력무관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대졸↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/13(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP, RPA, Java, 웹개발, 유지보수 외 수정일 22/02/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)이테크시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM / PL / 개발자 채용 - RPA 개발 및 프로젝트 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/06(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>㈜비즈테크파트너스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[LG그룹] RPA, 은행 및 금융IT FrontEnd, 모바일, 챗봇, MSA 개발자 인재채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력3년↑</t>
+    <t>[LG그룹]RPA, 은행및금융IT, Front End, 모바일, 챗봇, MSA 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 마포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력2년↑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,39 +420,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정규직 외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 마포구 외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~02/28(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, 안드로이드, 프론트엔드, CAN, front end, IOS, MSA, 소프트웨어개발, 솔루션, ERP, 웹프로그래머, Java, 아이폰, 안드로이드, 응용프로그래머, 전산전공, Python, 인공지능(AI), 빅데이터, R, 챗봇(Chatbot)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대오토에버㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA 부문 경력 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직</t>
+    <t>정규직·계약직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/28(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, C#, 프론트엔드, 모델링, Android 외 등록일 22/01/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)두잇시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA(Robot Process Automation) 개발자(경력, 신입)채용(정규직)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입·경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/07(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, Java, C#, 웹개발, Javascript 외 수정일 22/02/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,170 +464,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~03/22(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, 소프트웨어개발, SM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜한국인프라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜한국인프라 창원사무소(경남 창원 근무) RPA 개발자 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대졸↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남 창원시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~05/16(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET, C#, Delphi, VisualC, VisualC++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜한국인프라 RPA PM 및 개발자(신입/경력) 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔루션, .NET, Java, Python, VB.NET, 시스템분석, 시스템설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동국시스템즈㈜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[동국시스템즈] RPA솔루션 개발자 모집(신입, 경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 중구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~03/12(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI, SM, C#, Java, VisualBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)두잇시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA(Robot Process Automation) 개발자(경력, 신입)채용(정규직)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 영등포구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입·경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/07(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, Java, 웹개발, C#, Javascript 외 수정일 22/02/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)굿인벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[정규직/여의도] 기획개발팀 RPA/웹개발자 신입 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASP, RPA, Java, 백엔드/서버개발, 웹개발 외 수정일 22/02/07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국스코어링(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[신입] AI 기반 업무자동화(RPA) 구현 개발자 채용(서울)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, Java, .NET, C++, C언어 외 수정일 22/01/06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)하이아스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA 개발자 global 솔류션 delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직·계약직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 04/09(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, Java, OCR, 솔루션, Python 외 등록일 22/02/08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)유플러스아이티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융 개발 경력 및 신입 개발자 정규직 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상시채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP, RPA, Java, .NET, SI개발 외 등록일 22/01/17</t>
+    <t>~ 03/05(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, Java, C#, DBA, 데이터마이닝 외 수정일 22/02/03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5C848-6071-4124-A66A-9144A55FC891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -694,263 +853,281 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I2">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J2">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="K2">
+        <v>3.4</v>
+      </c>
+      <c r="L2">
         <v>2.9</v>
       </c>
-      <c r="L2">
-        <v>2.6</v>
-      </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N2">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
       <c r="I3">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I4">
         <v>2.7</v>
       </c>
       <c r="J4">
+        <v>2.5</v>
+      </c>
+      <c r="K4">
+        <v>3.1</v>
+      </c>
+      <c r="L4">
+        <v>2.8</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
         <v>2.4</v>
       </c>
-      <c r="K4">
-        <v>3.8</v>
-      </c>
-      <c r="L4">
-        <v>3.1</v>
-      </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
-      <c r="N4">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>104</v>
+      </c>
+      <c r="I5">
+        <v>2.6</v>
+      </c>
+      <c r="J5">
+        <v>1.9</v>
+      </c>
+      <c r="K5">
+        <v>2.9</v>
+      </c>
+      <c r="L5">
+        <v>2.6</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.2999999999999998</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="I6">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEDA98-4B08-4A16-95CD-1CA45E81DF89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -969,75 +1146,75 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <v>2.7</v>
@@ -1058,33 +1235,33 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>3.5</v>
@@ -1105,33 +1282,33 @@
         <v>2.6</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>3.3</v>
@@ -1152,33 +1329,33 @@
         <v>2.9</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I5">
         <v>3.3</v>
@@ -1199,33 +1376,33 @@
         <v>2.9</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <v>3.3</v>
@@ -1246,33 +1423,33 @@
         <v>2.9</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <v>3.3</v>
@@ -1293,33 +1470,33 @@
         <v>2.9</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <v>2.9</v>
@@ -1340,7 +1517,7 @@
         <v>2.6</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0E3E20-4E7B-4CB5-8B1F-44767DB9EB0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/취업정보뽀개기RPA/DWAVJobKorea/Result/rpa채용정보20220228.xlsx
+++ b/취업정보뽀개기RPA/DWAVJobKorea/Result/rpa채용정보20220228.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\취업정보뽀개기RPA\DWAVJobKorea\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd4dfd64622e41b/바탕 화면/DWAVRPA/DWAVRPA/DWAVRPA/취업정보뽀개기RPA/DWAVJobKorea/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_54107C45DC0F5F2C096943443C1B73B2570F2624" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{285C92D9-FF46-48FB-B26C-4769C2C60C5F}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-25290" yWindow="4785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사람인" sheetId="3" r:id="rId1"/>
@@ -21,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,78 +133,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상정보기술(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, Java, C#, 백엔드/서버개발, 웹개발 외 등록일 22/02/07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>㈜비즈테크파트너스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메이븐클라우드서비스(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집공고명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신입/경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고용형태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무지역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집마감일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집분야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복지 및 급여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무와 삶의 균형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사내문화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승진 기회 및 가능성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검색 성공 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,18 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경력3년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 강남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>~03/22(화)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정규직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>~05/16(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,58 +189,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>㈜한국인프라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜한국인프라 RPA PM 및 개발자(신입/경력) 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~05/16(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>솔루션, .NET, Java, Python, VB.NET, 시스템분석, 시스템설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>㈜한국인프라 창원사무소(경남 창원 근무) RPA 개발자 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남 창원시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~05/16(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET, C#, Delphi, VisualC, VisualC++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[동국시스템즈] RPA솔루션 개발자 모집(신입, 경력)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,90 +209,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색 성공 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[신입/경력] RPA 개발 및 유지보수 인력 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 광진구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력무관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대졸↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/13(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP, RPA, Java, 웹개발, 유지보수 외 수정일 22/02/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)이테크시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM / PL / 개발자 채용 - RPA 개발 및 프로젝트 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 중구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/06(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>㈜비즈테크파트너스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[LG그룹]RPA, 은행및금융IT, Front End, 모바일, 챗봇, MSA 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 마포구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력2년↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대졸↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정규직·계약직</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~ 03/28(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, C#, 프론트엔드, 모델링, Android 외 등록일 22/01/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(주)두잇시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,30 +233,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RPA, Java, C#, 웹개발, Javascript 외 수정일 22/02/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 강남구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/05(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA, Java, C#, DBA, 데이터마이닝 외 수정일 22/02/03</t>
+    <t>RPA, Java, 웹개발, C#, Javascript 외 수정일 22/02/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)굿인벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[정규직/여의도] 기획개발팀 RPA/웹개발자 신입 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP, RPA, Java, 백엔드/서버개발, 웹개발 외 수정일 22/02/07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국스코어링(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[신입] AI 기반 업무자동화(RPA) 구현 개발자 채용(서울)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, Java, .NET, C++, C언어 외 수정일 22/01/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)하이아스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA 개발자 global 솔류션 delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 04/09(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA, Java, OCR, 솔루션, Python 외 등록일 22/02/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)유플러스아이티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융 개발 경력 및 신입 개발자 정규직 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP, RPA, Java, .NET, SI개발 외 등록일 22/01/17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,7 +674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -888,55 +721,55 @@
       <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J2">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L2">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M2">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -944,187 +777,169 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4">
+        <v>3.8</v>
+      </c>
+      <c r="L4">
         <v>3.1</v>
       </c>
-      <c r="L4">
-        <v>2.8</v>
-      </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5">
-        <v>2.6</v>
-      </c>
-      <c r="J5">
-        <v>1.9</v>
-      </c>
-      <c r="K5">
-        <v>2.9</v>
-      </c>
-      <c r="L5">
-        <v>2.6</v>
-      </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.2999999999999998</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1137,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1146,57 +961,57 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1205,16 +1020,16 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <v>2.7</v>
@@ -1240,25 +1055,25 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -1287,28 +1102,28 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>3.3</v>
@@ -1334,16 +1149,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1352,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>3.3</v>
@@ -1381,28 +1196,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>3.3</v>
@@ -1428,28 +1243,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>3.3</v>
@@ -1478,10 +1293,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1490,13 +1305,13 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2.9</v>
@@ -1527,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
